--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -49,94 +49,103 @@
     <t>crude</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
@@ -145,12 +154,6 @@
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -175,163 +181,157 @@
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>care</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>shop</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,16 +779,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -858,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8116438356164384</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -958,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1008,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>0.8571428571428571</v>
@@ -1158,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.8328981723237598</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1208,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7391304347826086</v>
+        <v>0.72</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.72</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1358,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.7924528301886793</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.7878787878787878</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6842105263157895</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.7872340425531915</v>
+        <v>0.775</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1508,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.575</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>0.7857142857142857</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1558,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5423728813559322</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1608,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5343915343915344</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C20">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1658,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5294117647058824</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1676,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K21">
-        <v>0.7734375</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L21">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1708,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5271317829457365</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C22">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1726,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K22">
-        <v>0.7676056338028169</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1758,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5161290322580645</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K23">
-        <v>0.7625</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1808,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1826,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K24">
-        <v>0.7291666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1858,49 +1858,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L25">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>13</v>
-      </c>
-      <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>13</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L25">
-        <v>31</v>
-      </c>
-      <c r="M25">
-        <v>31</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1908,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K26">
         <v>0.7142857142857143</v>
@@ -1958,37 +1958,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4838709677419355</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>15</v>
       </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2008,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4496644295302014</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2026,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2058,38 +2058,38 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4102564102564102</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C29">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>78</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L29">
         <v>16</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>16</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>23</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L29">
-        <v>23</v>
-      </c>
-      <c r="M29">
-        <v>23</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2108,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4102564102564102</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L30">
         <v>23</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30">
-        <v>0.65</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
       <c r="M30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2158,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3866666666666667</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2176,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>0.6411764705882353</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L31">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2208,7 +2208,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3783783783783784</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
         <v>14</v>
@@ -2226,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>0.6307692307692307</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2258,13 +2258,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3636363636363636</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2276,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2308,13 +2308,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3636363636363636</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>0.6086956521739131</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2358,13 +2358,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3392857142857143</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2408,13 +2408,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2444444444444444</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2426,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>0.6071428571428571</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2458,13 +2458,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2337662337662338</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>0.5899581589958159</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L37">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2508,13 +2508,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2261904761904762</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C38">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.58</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2558,13 +2558,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1875</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2576,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K39">
-        <v>0.5830508474576271</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L39">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M39">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2608,13 +2608,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1420911528150134</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2626,19 +2626,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>0.58</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2658,13 +2658,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.06333333333333334</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2708,37 +2708,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0103126007089913</v>
+        <v>0.06</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3071</v>
+        <v>282</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2758,37 +2758,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009826860084230228</v>
+        <v>0.01128304319793682</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F43">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2116</v>
+        <v>3067</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K43">
-        <v>0.5638297872340425</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2804,17 +2804,41 @@
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.008890968647636874</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>0.24</v>
+      </c>
+      <c r="F44">
+        <v>0.76</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2118</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K44">
-        <v>0.5185185185185185</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2830,8 +2854,32 @@
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.004075235109717868</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>0.46</v>
+      </c>
+      <c r="F45">
+        <v>0.54</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3177</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K45">
         <v>0.5151515151515151</v>
@@ -2857,16 +2905,16 @@
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>0.4831460674157304</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2878,21 +2926,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>0.4666666666666667</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2904,21 +2952,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K48">
-        <v>0.4642857142857143</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2930,47 +2978,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>0.4390243902439024</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M49">
         <v>19</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K50">
-        <v>0.4313725490196079</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2982,15 +3030,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K51">
-        <v>0.359375</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L51">
         <v>23</v>
@@ -3008,21 +3056,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K52">
-        <v>0.3287671232876712</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3034,21 +3082,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K53">
-        <v>0.3076923076923077</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3060,21 +3108,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K54">
-        <v>0.288135593220339</v>
+        <v>0.234375</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3086,30 +3134,30 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K55">
-        <v>0.1296296296296296</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M55">
         <v>15</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>94</v>
@@ -3117,16 +3165,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K56">
-        <v>0.1048387096774194</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3138,59 +3186,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K57">
-        <v>0.0972972972972973</v>
-      </c>
-      <c r="L57">
-        <v>18</v>
-      </c>
-      <c r="M57">
-        <v>18</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
         <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K58">
-        <v>0.005015673981191223</v>
-      </c>
-      <c r="L58">
-        <v>16</v>
-      </c>
-      <c r="M58">
-        <v>27</v>
-      </c>
-      <c r="N58">
-        <v>0.59</v>
-      </c>
-      <c r="O58">
-        <v>0.41</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3174</v>
       </c>
     </row>
   </sheetData>
